--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$70</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observationtion TMP (Kun et eksempel med kroppsvekt)</t>
+    <t>Observation TMP (Kun et eksempel med kroppsvekt)</t>
   </si>
   <si>
     <t>Status</t>
@@ -1901,6 +1904,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2257,7 +2275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>22</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>91</v>
       </c>
@@ -2497,7 +2515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>99</v>
       </c>
@@ -2615,7 +2633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>105</v>
       </c>
@@ -2735,7 +2753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>111</v>
       </c>
@@ -2855,7 +2873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>128</v>
       </c>
@@ -3095,7 +3113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>136</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>144</v>
       </c>
@@ -3337,7 +3355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
@@ -3457,7 +3475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>158</v>
       </c>
@@ -3577,7 +3595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>167</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>176</v>
       </c>
@@ -3819,7 +3837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>190</v>
       </c>
@@ -3941,7 +3959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>200</v>
       </c>
@@ -4063,7 +4081,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>215</v>
       </c>
@@ -4181,7 +4199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>221</v>
       </c>
@@ -4301,7 +4319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
@@ -4423,7 +4441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>236</v>
       </c>
@@ -4541,7 +4559,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>237</v>
       </c>
@@ -4661,7 +4679,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>238</v>
       </c>
@@ -4783,7 +4801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>247</v>
       </c>
@@ -4903,7 +4921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>254</v>
       </c>
@@ -5023,7 +5041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>261</v>
       </c>
@@ -5143,7 +5161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>268</v>
       </c>
@@ -5265,7 +5283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>277</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>285</v>
       </c>
@@ -5509,7 +5527,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>295</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>301</v>
       </c>
@@ -5751,7 +5769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>312</v>
       </c>
@@ -5873,7 +5891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>323</v>
       </c>
@@ -5993,7 +6011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>331</v>
       </c>
@@ -6113,7 +6131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>340</v>
       </c>
@@ -6233,7 +6251,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>352</v>
       </c>
@@ -6254,7 +6272,7 @@
         <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -6357,7 +6375,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>355</v>
       </c>
@@ -6475,7 +6493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>357</v>
       </c>
@@ -6595,7 +6613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>359</v>
       </c>
@@ -6717,7 +6735,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>369</v>
       </c>
@@ -6839,7 +6857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>380</v>
       </c>
@@ -6959,7 +6977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>388</v>
       </c>
@@ -7079,7 +7097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>397</v>
       </c>
@@ -7201,7 +7219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>405</v>
       </c>
@@ -7323,7 +7341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>415</v>
       </c>
@@ -7445,7 +7463,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>427</v>
       </c>
@@ -7567,7 +7585,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>435</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>445</v>
       </c>
@@ -7809,7 +7827,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>454</v>
       </c>
@@ -7929,7 +7947,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>463</v>
       </c>
@@ -8049,7 +8067,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>472</v>
       </c>
@@ -8171,7 +8189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>481</v>
       </c>
@@ -8289,7 +8307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>482</v>
       </c>
@@ -8409,7 +8427,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>483</v>
       </c>
@@ -8531,7 +8549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>488</v>
       </c>
@@ -8649,7 +8667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>495</v>
       </c>
@@ -8767,7 +8785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>499</v>
       </c>
@@ -8889,7 +8907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>508</v>
       </c>
@@ -9011,7 +9029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>515</v>
       </c>
@@ -9131,7 +9149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>521</v>
       </c>
@@ -9249,7 +9267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>525</v>
       </c>
@@ -9369,7 +9387,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>532</v>
       </c>
@@ -9489,7 +9507,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>538</v>
       </c>
@@ -9611,7 +9629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>545</v>
       </c>
@@ -9729,7 +9747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>546</v>
       </c>
@@ -9849,7 +9867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>547</v>
       </c>
@@ -9971,7 +9989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>548</v>
       </c>
@@ -10093,7 +10111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>553</v>
       </c>
@@ -10215,7 +10233,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>557</v>
       </c>
@@ -10337,7 +10355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>561</v>
       </c>
@@ -10459,7 +10477,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>562</v>
       </c>
@@ -10582,6 +10600,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP70">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI69">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observation TMP (Kun et eksempel med kroppsvekt)</t>
+    <t>Observasjon (kladd)</t>
   </si>
   <si>
     <t>Status</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-observation-tmp.xlsx
@@ -1670,7 +1670,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
